--- a/Tabelas/Gerenciador de cidades/City Build Stats 0.1.xlsx
+++ b/Tabelas/Gerenciador de cidades/City Build Stats 0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cefas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Ars Magica\Tabelas\Gerenciador de cidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B5A7B-DA5A-4BD4-AEE4-DF194A20CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9CCDEF-CF20-40B7-AE4E-E6A4BF48209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C0C5EF54-8AA0-4232-953C-F35C6DEF3FC3}"/>
   </bookViews>
@@ -1336,239 +1336,239 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1618,7 +1618,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1877,40 +1877,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,7 +2043,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2274,7 +2274,7 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#\ &quot;km²&quot;">
                   <c:v>1</c:v>
@@ -3674,7 +3674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3973,7 +3973,7 @@
   <dimension ref="A1:AK104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J4"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,43 +4015,43 @@
     </row>
     <row r="2" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144" t="s">
+      <c r="N2" s="123"/>
+      <c r="O2" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="144"/>
+      <c r="P2" s="123"/>
       <c r="Q2" s="46"/>
-      <c r="S2" s="122" t="s">
+      <c r="S2" s="168" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
       <c r="V2" s="57"/>
       <c r="W2" s="57"/>
       <c r="X2" s="1"/>
@@ -4061,42 +4061,42 @@
     </row>
     <row r="3" spans="1:33" s="39" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46"/>
-      <c r="B3" s="176">
+      <c r="B3" s="126">
         <v>1000</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177" t="str">
+      <c r="C3" s="126"/>
+      <c r="D3" s="127" t="str">
         <f>VLOOKUP(B3,B45:E62,3,1)</f>
         <v>Baronato Médio</v>
       </c>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="89">
         <f>VLOOKUP(D3,D45:F62,2,1)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="178">
-        <v>25000</v>
-      </c>
-      <c r="I3" s="178"/>
+      <c r="H3" s="128">
+        <v>556</v>
+      </c>
+      <c r="I3" s="128"/>
       <c r="J3" s="89">
         <f>VLOOKUP(H3,G45:I62,3,1)</f>
-        <v>16</v>
-      </c>
-      <c r="K3" s="179">
+        <v>4</v>
+      </c>
+      <c r="K3" s="129">
         <f>(B3-B17-B19)*40</f>
-        <v>19960</v>
-      </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="174">
+        <v>39760</v>
+      </c>
+      <c r="L3" s="129"/>
+      <c r="M3" s="124">
         <v>0.4</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="173">
+      <c r="N3" s="124"/>
+      <c r="O3" s="122">
         <f>G3+J3+F5+F7+F9+F11+K5+K7+K9+K11+P5+P7+P9+P11+E14+E16+E18+E20</f>
-        <v>34</v>
-      </c>
-      <c r="P3" s="173"/>
+        <v>-35</v>
+      </c>
+      <c r="P3" s="122"/>
       <c r="Q3" s="46"/>
       <c r="S3" s="98" t="s">
         <v>155</v>
@@ -4115,250 +4115,250 @@
       <c r="B4" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
       <c r="K4" s="91" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="142" t="s">
+      <c r="M4" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
       <c r="P4" s="91" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="46"/>
-      <c r="S4" s="123">
+      <c r="S4" s="169">
         <f>VLOOKUP(AK42,AJ44:AK104,2,0)</f>
-        <v>1.00000000000003</v>
-      </c>
-      <c r="T4" s="124">
+        <v>-10</v>
+      </c>
+      <c r="T4" s="170">
         <v>0</v>
       </c>
-      <c r="U4" s="123">
+      <c r="U4" s="169">
         <f>S4+T4</f>
-        <v>1.00000000000003</v>
+        <v>-10</v>
       </c>
       <c r="AD4" s="77"/>
       <c r="AF4" s="77"/>
     </row>
     <row r="5" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
-      <c r="B5" s="113">
-        <v>2</v>
-      </c>
-      <c r="C5" s="148" t="s">
+      <c r="B5" s="158">
+        <v>1</v>
+      </c>
+      <c r="C5" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149">
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="159">
         <f>VLOOKUP(C6,L45:O51,4,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G5" s="113">
-        <v>2</v>
-      </c>
-      <c r="H5" s="148" t="s">
+        <v>-3</v>
+      </c>
+      <c r="G5" s="158">
+        <v>1</v>
+      </c>
+      <c r="H5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="146">
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="152">
         <f>VLOOKUP(H6,S45:V51,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="113">
-        <v>2</v>
-      </c>
-      <c r="M5" s="148" t="s">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="158">
+        <v>1</v>
+      </c>
+      <c r="M5" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="117">
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="134">
         <f>VLOOKUP(M6,Z45:AC51,4,0)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Q5" s="48"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="123"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="169"/>
       <c r="AD5" s="77"/>
       <c r="AF5" s="77"/>
     </row>
     <row r="6" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="140" t="str">
+      <c r="B6" s="158"/>
+      <c r="C6" s="120" t="str">
         <f>VLOOKUP(B5,K45:N51,2,0)</f>
-        <v>Inexistente</v>
-      </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="140" t="str">
+        <v>Nenhum</v>
+      </c>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="120" t="str">
         <f>VLOOKUP(G5,R45:U51,2,0)</f>
-        <v>Algum sentimento</v>
-      </c>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="140" t="str">
+        <v>Nenhum sentimento</v>
+      </c>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="120" t="str">
         <f>VLOOKUP(L5,Y45:AB51,2,0)</f>
-        <v>Muito Insular</v>
-      </c>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="117"/>
+        <v>Xenofobia</v>
+      </c>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="134"/>
       <c r="Q6" s="46"/>
       <c r="AD6" s="77"/>
       <c r="AF6" s="77"/>
     </row>
     <row r="7" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
-      <c r="B7" s="113">
-        <v>2</v>
-      </c>
-      <c r="C7" s="114" t="s">
+      <c r="B7" s="158">
+        <v>1</v>
+      </c>
+      <c r="C7" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="150">
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="160">
         <f>VLOOKUP(C8,L53:O59,4,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G7" s="113">
-        <v>2</v>
-      </c>
-      <c r="H7" s="114" t="s">
+        <v>-6</v>
+      </c>
+      <c r="G7" s="158">
+        <v>1</v>
+      </c>
+      <c r="H7" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="146">
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="152">
         <f>VLOOKUP(H8,S53:V59,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="113">
-        <v>2</v>
-      </c>
-      <c r="M7" s="114" t="s">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="158">
+        <v>1</v>
+      </c>
+      <c r="M7" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="117">
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="134">
         <f>VLOOKUP(M8,Z53:AC59,4,0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q7" s="46"/>
-      <c r="S7" s="107" t="s">
+      <c r="S7" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
       <c r="AD7" s="77"/>
       <c r="AF7" s="77"/>
     </row>
     <row r="8" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="139" t="str">
+      <c r="B8" s="158"/>
+      <c r="C8" s="132" t="str">
         <f>VLOOKUP(B7,K53:N59,2,0)</f>
-        <v>Ignoram os senhores</v>
-      </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="139" t="str">
+        <v>Odeiam os senhores</v>
+      </c>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="132" t="str">
         <f>VLOOKUP(G7,R53:U59,2,0)</f>
-        <v>Rara educação</v>
-      </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="139" t="str">
+        <v>Nenhuma educação</v>
+      </c>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="132" t="str">
         <f>VLOOKUP(L7,Y53:AB59,2,0)</f>
-        <v>Muito Pouca</v>
-      </c>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="117"/>
+        <v>Nenhuma</v>
+      </c>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="134"/>
       <c r="Q8" s="46"/>
-      <c r="S8" s="109" t="s">
+      <c r="S8" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
       <c r="AD8" s="77"/>
       <c r="AF8" s="77"/>
     </row>
     <row r="9" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
-      <c r="B9" s="113">
-        <v>3</v>
-      </c>
-      <c r="C9" s="148" t="s">
+      <c r="B9" s="158">
+        <v>1</v>
+      </c>
+      <c r="C9" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="150">
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="160">
         <f>VLOOKUP(C10,L61:O67,4,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G9" s="113">
-        <v>2</v>
-      </c>
-      <c r="H9" s="148" t="s">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="158">
+        <v>1</v>
+      </c>
+      <c r="H9" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="146">
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="152">
         <f>VLOOKUP(H10,S61:V67,4,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="L9" s="113">
-        <v>3</v>
-      </c>
-      <c r="M9" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="158">
+        <v>1</v>
+      </c>
+      <c r="M9" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="117">
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="134">
         <f>VLOOKUP(M10,Z61:AC67,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="46"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
       <c r="Z9" s="104"/>
       <c r="AD9" s="77"/>
       <c r="AF9" s="77"/>
@@ -4366,146 +4366,146 @@
     </row>
     <row r="10" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="140" t="str">
+      <c r="B10" s="158"/>
+      <c r="C10" s="120" t="str">
         <f>VLOOKUP(B9,K61:N67,2,0)</f>
-        <v>Medicina esotérica</v>
-      </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="140" t="str">
+        <v>Nenhuma ação sanitária</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="120" t="str">
         <f>VLOOKUP(G9,R61:U67,2,0)</f>
-        <v>Aproveitadores</v>
-      </c>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="140" t="str">
+        <v>Nenhuma</v>
+      </c>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="120" t="str">
         <f>VLOOKUP(L9,Y61:AB67,2,0)</f>
-        <v>Paliçadas</v>
-      </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="117"/>
+        <v>Nenhuma</v>
+      </c>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="134"/>
       <c r="Q10" s="46"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
       <c r="AD10" s="77"/>
       <c r="AF10" s="77"/>
     </row>
     <row r="11" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
-      <c r="B11" s="113">
-        <v>3</v>
-      </c>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="158">
+        <v>1</v>
+      </c>
+      <c r="C11" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="150">
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="160">
         <f>VLOOKUP(C12,L69:O75,4,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="113">
-        <v>3</v>
-      </c>
-      <c r="H11" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="158">
+        <v>1</v>
+      </c>
+      <c r="H11" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="146">
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="152">
         <f>VLOOKUP(H12,S69:V75,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="113">
-        <v>3</v>
-      </c>
-      <c r="M11" s="114" t="s">
+        <v>-2</v>
+      </c>
+      <c r="L11" s="158">
+        <v>1</v>
+      </c>
+      <c r="M11" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="117">
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="134">
         <f>VLOOKUP(M12,Z69:AC75,4,0)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="Q11" s="46"/>
-      <c r="S11" s="109" t="s">
+      <c r="S11" s="184" t="s">
         <v>180</v>
       </c>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
       <c r="AD11" s="77"/>
       <c r="AF11" s="77"/>
     </row>
     <row r="12" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="139" t="str">
+      <c r="B12" s="158"/>
+      <c r="C12" s="132" t="str">
         <f>VLOOKUP(B11,K69:N75,2,0)</f>
-        <v>Tribunal</v>
-      </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="139" t="str">
+        <v>Nenhuma</v>
+      </c>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="132" t="str">
         <f>VLOOKUP(G11,R69:U75,2,0)</f>
-        <v>Missionários</v>
-      </c>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="139" t="str">
+        <v xml:space="preserve">Paganismo </v>
+      </c>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="132" t="str">
         <f>VLOOKUP(L11,Y69:AB75,2,0)</f>
-        <v>Normal</v>
-      </c>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="117"/>
+        <v>Quebrado</v>
+      </c>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="134"/>
       <c r="Q12" s="46"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
       <c r="AD12" s="77"/>
       <c r="AF12" s="77"/>
     </row>
     <row r="13" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="145" t="s">
+      <c r="F13" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="61"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -4515,29 +4515,29 @@
     </row>
     <row r="14" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="117">
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="134">
         <f>VLOOKUP(B15,K78:M85,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="118" t="str">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="162" t="str">
         <f>VLOOKUP(B15,K78:Y85,4,1)</f>
-        <v xml:space="preserve"> Aceitável, Bens são produzidos de forma aceitável e setores estratégicos são atendidos.</v>
-      </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
+        <v xml:space="preserve"> Faltam Trabalhadores  - Estado possui crescimento muito lento, com grande ofertas de vagas para estrangeiros</v>
+      </c>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
       <c r="Q14" s="46"/>
       <c r="R14" s="62"/>
       <c r="S14" s="62"/>
@@ -4552,29 +4552,29 @@
     </row>
     <row r="15" spans="1:33" s="39" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
-      <c r="B15" s="147">
-        <v>15000</v>
-      </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
+      <c r="B15" s="164">
+        <v>250</v>
+      </c>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="T15" s="182"/>
-      <c r="U15" s="183"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="111"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -4584,29 +4584,29 @@
     </row>
     <row r="16" spans="1:33" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="117">
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="134">
         <f>VLOOKUP(B17,K88:M91,3,1)</f>
-        <v>12</v>
-      </c>
-      <c r="F16" s="118" t="str">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="162" t="str">
         <f>VLOOKUP(B17,K88:Y91,4,1)</f>
-        <v xml:space="preserve">O Estado produz comida abundante e barata facorecendo a exportação e e manufaturas. </v>
-      </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
+        <v>O Estado não produz o mínimo, a comida é pouca, cara e de baixa qualidade.</v>
+      </c>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -4621,23 +4621,23 @@
     </row>
     <row r="17" spans="1:32" s="39" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
-      <c r="B17" s="143">
-        <v>500</v>
-      </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
+      <c r="B17" s="161">
+        <v>5</v>
+      </c>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="46"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -4652,29 +4652,29 @@
     </row>
     <row r="18" spans="1:32" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46"/>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="117">
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="134">
         <f>VLOOKUP(B19,K94:M97,3,1)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="118" t="str">
+      <c r="F18" s="162" t="str">
         <f>VLOOKUP(B19,K94:Y97,4,1)</f>
         <v>O Estado é insuficiente em produzir recursos naturais e criar bens ou luxo</v>
       </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -4689,23 +4689,23 @@
     </row>
     <row r="19" spans="1:32" s="39" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
-      <c r="B19" s="116">
+      <c r="B19" s="186">
         <v>1</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
       <c r="Q19" s="46"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -4720,29 +4720,29 @@
     </row>
     <row r="20" spans="1:32" s="39" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="188" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="117">
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="134">
         <f>VLOOKUP(B21,K100:M103,3,1)</f>
-        <v>5</v>
-      </c>
-      <c r="F20" s="120" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20" s="121" t="str">
         <f>VLOOKUP(B21,K100:Y103,4,1)</f>
-        <v>O estado  é incapaz de levantar, equipar e manter treinada uma parte de sua população</v>
-      </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
+        <v>O Estado é insuficiente levantar, equipar e treinar propriamente um exército</v>
+      </c>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -4757,23 +4757,23 @@
     </row>
     <row r="21" spans="1:32" s="39" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="46"/>
-      <c r="B21" s="119">
-        <v>1500</v>
-      </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
+      <c r="B21" s="187">
+        <v>4</v>
+      </c>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
       <c r="Q21" s="46"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -4791,25 +4791,25 @@
       <c r="B22" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="185"/>
       <c r="F22" s="95">
         <f>H3*AF69*(AH44*200)*AH45*M3</f>
-        <v>400000</v>
-      </c>
-      <c r="G22" s="110" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
       <c r="Q22" s="67"/>
       <c r="R22" s="57"/>
       <c r="S22" s="57"/>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="83" t="s">
         <v>163</v>
       </c>
@@ -4837,16 +4837,16 @@
       <c r="F23" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
       <c r="Q23" s="67"/>
       <c r="R23" s="57"/>
       <c r="S23" s="57"/>
@@ -4861,28 +4861,28 @@
     </row>
     <row r="24" spans="1:32" s="41" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="66"/>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="180"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="84">
         <v>0.2</v>
       </c>
       <c r="E24" s="85">
         <f>F22*D24</f>
-        <v>80000</v>
+        <v>55.6</v>
       </c>
       <c r="F24" s="86"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="179"/>
       <c r="Q24" s="73"/>
       <c r="R24" s="73"/>
       <c r="S24" s="73"/>
@@ -4900,28 +4900,28 @@
     </row>
     <row r="25" spans="1:32" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="66"/>
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="180"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="87">
         <v>0.2</v>
       </c>
       <c r="E25" s="85">
         <f>F22*D25</f>
-        <v>80000</v>
+        <v>55.6</v>
       </c>
       <c r="F25" s="86"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="135"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="179"/>
       <c r="Q25" s="73"/>
       <c r="R25" s="73"/>
       <c r="S25" s="73"/>
@@ -4932,28 +4932,28 @@
     </row>
     <row r="26" spans="1:32" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="66"/>
-      <c r="B26" s="180" t="s">
+      <c r="B26" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="180"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="84">
         <v>0.1</v>
       </c>
       <c r="E26" s="85">
         <f>F22*D26</f>
-        <v>40000</v>
+        <v>27.8</v>
       </c>
       <c r="F26" s="86"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="135"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="179"/>
       <c r="Q26" s="73"/>
       <c r="R26" s="73"/>
       <c r="S26" s="73"/>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="27" spans="1:32" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66"/>
-      <c r="B27" s="180" t="s">
+      <c r="B27" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="180"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="84">
         <v>0</v>
       </c>
@@ -4976,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="86"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="135"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="179"/>
       <c r="Q27" s="73"/>
       <c r="R27" s="73"/>
       <c r="S27" s="73"/>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="28" spans="1:32" s="41" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="66"/>
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="180"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="84">
         <v>0</v>
       </c>
@@ -5008,16 +5008,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="86"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="182"/>
       <c r="Q28" s="57"/>
       <c r="R28" s="57"/>
       <c r="S28" s="57"/>
@@ -5031,28 +5031,28 @@
     </row>
     <row r="29" spans="1:32" s="41" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="66"/>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
       <c r="L29" s="69"/>
       <c r="M29" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="N29" s="170">
+      <c r="N29" s="136">
         <f>F22-E24-E25-E26-E27-E28</f>
-        <v>200000</v>
-      </c>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
+        <v>139</v>
+      </c>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
       <c r="Q29" s="67"/>
       <c r="R29" s="57"/>
       <c r="S29" s="57"/>
@@ -5067,23 +5067,23 @@
     </row>
     <row r="30" spans="1:32" s="41" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="120" t="s">
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120" t="s">
+      <c r="F30" s="121"/>
+      <c r="G30" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120" t="s">
+      <c r="H30" s="121"/>
+      <c r="I30" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
       <c r="K30" s="75" t="s">
         <v>152</v>
       </c>
@@ -5093,11 +5093,11 @@
       <c r="M30" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="120" t="s">
+      <c r="N30" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
       <c r="Q30" s="67"/>
       <c r="R30" s="57"/>
       <c r="S30" s="57"/>
@@ -5112,25 +5112,25 @@
     </row>
     <row r="31" spans="1:32" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="167">
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="135">
         <f>F22*AH52</f>
-        <v>32000</v>
-      </c>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168">
+        <v>0</v>
+      </c>
+      <c r="F31" s="135"/>
+      <c r="G31" s="138">
         <v>1</v>
       </c>
-      <c r="H31" s="169"/>
-      <c r="I31" s="171">
+      <c r="H31" s="139"/>
+      <c r="I31" s="112">
         <f>E31*G31</f>
-        <v>32000</v>
-      </c>
-      <c r="J31" s="172"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="113"/>
       <c r="K31" s="70">
         <f>IF(I31 &gt;= E31, I31-E31,)</f>
         <v>0</v>
@@ -5140,9 +5140,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="71"/>
-      <c r="N31" s="188"/>
-      <c r="O31" s="188"/>
-      <c r="P31" s="188"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
       <c r="Q31" s="67"/>
       <c r="R31" s="57"/>
       <c r="S31" s="57"/>
@@ -5157,25 +5157,25 @@
     </row>
     <row r="32" spans="1:32" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="66"/>
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="167">
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="135">
         <f>F22*AH49</f>
-        <v>4000</v>
-      </c>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168">
+        <v>0</v>
+      </c>
+      <c r="F32" s="135"/>
+      <c r="G32" s="138">
         <v>1</v>
       </c>
-      <c r="H32" s="169"/>
-      <c r="I32" s="171">
+      <c r="H32" s="139"/>
+      <c r="I32" s="112">
         <f t="shared" ref="I32:I36" si="0">E32*G32</f>
-        <v>4000</v>
-      </c>
-      <c r="J32" s="172"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="113"/>
       <c r="K32" s="70">
         <f t="shared" ref="K32:K36" si="1">IF(I32 &gt;= E32, I32-E32,)</f>
         <v>0</v>
@@ -5185,9 +5185,9 @@
         <v>0</v>
       </c>
       <c r="M32" s="76"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
       <c r="Q32" s="67"/>
       <c r="R32" s="57"/>
       <c r="S32" s="57"/>
@@ -5202,25 +5202,25 @@
     </row>
     <row r="33" spans="1:37" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="66"/>
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="167">
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="135">
         <f>F22*AH51</f>
-        <v>40000</v>
-      </c>
-      <c r="F33" s="167"/>
-      <c r="G33" s="168">
+        <v>13.9</v>
+      </c>
+      <c r="F33" s="135"/>
+      <c r="G33" s="138">
         <v>1</v>
       </c>
-      <c r="H33" s="169"/>
-      <c r="I33" s="171">
+      <c r="H33" s="139"/>
+      <c r="I33" s="112">
         <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="J33" s="172"/>
+        <v>13.9</v>
+      </c>
+      <c r="J33" s="113"/>
       <c r="K33" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5230,9 +5230,9 @@
         <v>0</v>
       </c>
       <c r="M33" s="76"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
       <c r="Q33" s="67"/>
       <c r="R33" s="57"/>
       <c r="S33" s="57"/>
@@ -5247,37 +5247,37 @@
     </row>
     <row r="34" spans="1:37" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="66"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="167">
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="135">
         <f>F22*AH50</f>
-        <v>28000.000000000004</v>
-      </c>
-      <c r="F34" s="167"/>
-      <c r="G34" s="168">
+        <v>0</v>
+      </c>
+      <c r="F34" s="135"/>
+      <c r="G34" s="138">
         <v>0.8</v>
       </c>
-      <c r="H34" s="169"/>
-      <c r="I34" s="171">
+      <c r="H34" s="139"/>
+      <c r="I34" s="112">
         <f t="shared" si="0"/>
-        <v>22400.000000000004</v>
-      </c>
-      <c r="J34" s="172"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="113"/>
       <c r="K34" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L34" s="70">
         <f t="shared" si="2"/>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="M34" s="76"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
       <c r="Q34" s="67"/>
       <c r="R34" s="57"/>
       <c r="S34" s="57"/>
@@ -5292,25 +5292,25 @@
     </row>
     <row r="35" spans="1:37" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="66"/>
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="167">
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="135">
         <f>F22*AH47</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="167"/>
-      <c r="G35" s="168">
+        <v>55.6</v>
+      </c>
+      <c r="F35" s="135"/>
+      <c r="G35" s="138">
         <v>1</v>
       </c>
-      <c r="H35" s="169"/>
-      <c r="I35" s="171">
+      <c r="H35" s="139"/>
+      <c r="I35" s="112">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="172"/>
+        <v>55.6</v>
+      </c>
+      <c r="J35" s="113"/>
       <c r="K35" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5320,9 +5320,9 @@
         <v>0</v>
       </c>
       <c r="M35" s="76"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="57"/>
       <c r="S35" s="57"/>
@@ -5337,25 +5337,25 @@
     </row>
     <row r="36" spans="1:37" s="41" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="66"/>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="167">
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="135">
         <f>F22*AH48</f>
-        <v>40000</v>
-      </c>
-      <c r="F36" s="167"/>
-      <c r="G36" s="168">
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="F36" s="135"/>
+      <c r="G36" s="138">
         <v>1</v>
       </c>
-      <c r="H36" s="169"/>
-      <c r="I36" s="171">
+      <c r="H36" s="139"/>
+      <c r="I36" s="112">
         <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="J36" s="172"/>
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="J36" s="113"/>
       <c r="K36" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5365,9 +5365,9 @@
         <v>0</v>
       </c>
       <c r="M36" s="76"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
       <c r="Q36" s="67"/>
       <c r="R36" s="57"/>
       <c r="S36" s="57"/>
@@ -5424,17 +5424,17 @@
       <c r="A39" s="47"/>
       <c r="E39" s="153">
         <f>F22</f>
-        <v>400000</v>
+        <v>278</v>
       </c>
       <c r="F39" s="154"/>
       <c r="H39" s="153">
         <f>SUM(I31:J36)</f>
-        <v>138400</v>
+        <v>72.28</v>
       </c>
       <c r="I39" s="154"/>
       <c r="K39" s="155">
         <f>N29-H39</f>
-        <v>61600</v>
+        <v>66.72</v>
       </c>
       <c r="L39" s="155"/>
       <c r="Q39" s="47"/>
@@ -5491,15 +5491,15 @@
     </row>
     <row r="42" spans="1:37" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="185">
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115">
         <v>0.2</v>
       </c>
-      <c r="F42" s="185"/>
+      <c r="F42" s="115"/>
       <c r="G42" s="63" t="e">
         <f>#REF!*(E42*1)</f>
         <v>#REF!</v>
@@ -5526,7 +5526,7 @@
       <c r="AF42" s="77"/>
       <c r="AK42" s="41">
         <f>SUM(AH54:AH63)+Z86+Z92+Z104</f>
-        <v>1</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5537,32 +5537,32 @@
     </row>
     <row r="44" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="46"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162" t="s">
+      <c r="C44" s="143"/>
+      <c r="D44" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="162"/>
+      <c r="E44" s="143"/>
       <c r="F44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="165" t="s">
+      <c r="G44" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="162"/>
+      <c r="H44" s="143"/>
       <c r="I44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L44" s="162" t="s">
+      <c r="L44" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="162"/>
-      <c r="N44" s="162"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
       <c r="O44" s="5"/>
       <c r="P44" s="40" t="s">
         <v>17</v>
@@ -5573,11 +5573,11 @@
       <c r="R44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S44" s="157" t="s">
+      <c r="S44" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="T44" s="157"/>
-      <c r="U44" s="157"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
       <c r="V44" s="6"/>
       <c r="W44" s="40" t="s">
         <v>17</v>
@@ -5586,11 +5586,11 @@
       <c r="Y44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="Z44" s="157" t="s">
+      <c r="Z44" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AA44" s="157"/>
-      <c r="AB44" s="157"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
       <c r="AC44" s="60" t="s">
         <v>138</v>
       </c>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="AH44" s="97">
         <f>VLOOKUP(L11,Y69:AE75,7,0)</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AJ44">
         <v>-30</v>
@@ -5618,10 +5618,10 @@
       <c r="C45" s="20">
         <v>25</v>
       </c>
-      <c r="D45" s="141" t="s">
+      <c r="D45" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="141"/>
+      <c r="E45" s="140"/>
       <c r="F45" s="21">
         <v>1</v>
       </c>
@@ -5637,11 +5637,11 @@
       <c r="K45" s="10">
         <v>1</v>
       </c>
-      <c r="L45" s="125" t="s">
+      <c r="L45" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
       <c r="O45" s="12">
         <v>-3</v>
       </c>
@@ -5668,11 +5668,11 @@
       <c r="Y45" s="7">
         <v>1</v>
       </c>
-      <c r="Z45" s="125" t="s">
+      <c r="Z45" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="AA45" s="125"/>
-      <c r="AB45" s="125"/>
+      <c r="AA45" s="137"/>
+      <c r="AB45" s="137"/>
       <c r="AC45" s="14">
         <v>-3</v>
       </c>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="AH45">
         <f>VLOOKUP(B5,K45:P51,6,0)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AJ45">
         <v>-29</v>
@@ -5699,10 +5699,10 @@
       <c r="C46" s="20">
         <v>50</v>
       </c>
-      <c r="D46" s="141" t="s">
+      <c r="D46" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="141"/>
+      <c r="E46" s="140"/>
       <c r="F46" s="21">
         <v>2</v>
       </c>
@@ -5719,11 +5719,11 @@
       <c r="K46" s="10">
         <v>2</v>
       </c>
-      <c r="L46" s="125" t="s">
+      <c r="L46" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
       <c r="O46" s="12">
         <v>-2</v>
       </c>
@@ -5750,11 +5750,11 @@
       <c r="Y46" s="8">
         <v>2</v>
       </c>
-      <c r="Z46" s="125" t="s">
+      <c r="Z46" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="AA46" s="125"/>
-      <c r="AB46" s="125"/>
+      <c r="AA46" s="137"/>
+      <c r="AB46" s="137"/>
       <c r="AC46" s="12">
         <v>-1</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="AH46">
         <f>VLOOKUP(G9,R61:W67,6,0)</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="93">
         <v>-28</v>
@@ -5781,10 +5781,10 @@
       <c r="C47" s="20">
         <v>100</v>
       </c>
-      <c r="D47" s="141" t="s">
+      <c r="D47" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="141"/>
+      <c r="E47" s="140"/>
       <c r="F47" s="21">
         <v>4</v>
       </c>
@@ -5801,11 +5801,11 @@
       <c r="K47" s="10">
         <v>3</v>
       </c>
-      <c r="L47" s="125" t="s">
+      <c r="L47" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
       <c r="O47" s="12">
         <v>-1</v>
       </c>
@@ -5832,11 +5832,11 @@
       <c r="Y47" s="8">
         <v>3</v>
       </c>
-      <c r="Z47" s="125" t="s">
+      <c r="Z47" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AA47" s="125"/>
-      <c r="AB47" s="125"/>
+      <c r="AA47" s="137"/>
+      <c r="AB47" s="137"/>
       <c r="AC47" s="12">
         <v>0</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="AH47">
         <f>VLOOKUP(B9,K61:P67,6,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AJ47" s="93">
         <v>-27</v>
@@ -5863,10 +5863,10 @@
       <c r="C48" s="20">
         <v>200</v>
       </c>
-      <c r="D48" s="141" t="s">
+      <c r="D48" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="141"/>
+      <c r="E48" s="140"/>
       <c r="F48" s="21">
         <v>6</v>
       </c>
@@ -5883,11 +5883,11 @@
       <c r="K48" s="10">
         <v>4</v>
       </c>
-      <c r="L48" s="125" t="s">
+      <c r="L48" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
       <c r="O48" s="12">
         <v>0</v>
       </c>
@@ -5914,11 +5914,11 @@
       <c r="Y48" s="8">
         <v>4</v>
       </c>
-      <c r="Z48" s="125" t="s">
+      <c r="Z48" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="AA48" s="125"/>
-      <c r="AB48" s="125"/>
+      <c r="AA48" s="137"/>
+      <c r="AB48" s="137"/>
       <c r="AC48" s="12">
         <v>1</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="AH48">
         <f>VLOOKUP(B11,K69:P75,6,0)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AJ48" s="93">
         <v>-26</v>
@@ -5945,10 +5945,10 @@
       <c r="C49" s="20">
         <v>300</v>
       </c>
-      <c r="D49" s="141" t="s">
+      <c r="D49" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="141"/>
+      <c r="E49" s="140"/>
       <c r="F49" s="21">
         <v>8</v>
       </c>
@@ -5965,11 +5965,11 @@
       <c r="K49" s="10">
         <v>5</v>
       </c>
-      <c r="L49" s="125" t="s">
+      <c r="L49" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
+      <c r="M49" s="137"/>
+      <c r="N49" s="137"/>
       <c r="O49" s="12">
         <v>1</v>
       </c>
@@ -5996,11 +5996,11 @@
       <c r="Y49" s="8">
         <v>5</v>
       </c>
-      <c r="Z49" s="125" t="s">
+      <c r="Z49" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="AA49" s="125"/>
-      <c r="AB49" s="125"/>
+      <c r="AA49" s="137"/>
+      <c r="AB49" s="137"/>
       <c r="AC49" s="12">
         <v>3</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="AH49">
         <f>VLOOKUP(G7,R53:W59,6,0)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="93">
         <v>-25</v>
@@ -6027,10 +6027,10 @@
       <c r="C50" s="20">
         <v>500</v>
       </c>
-      <c r="D50" s="141" t="s">
+      <c r="D50" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="141"/>
+      <c r="E50" s="140"/>
       <c r="F50" s="21">
         <v>12</v>
       </c>
@@ -6047,11 +6047,11 @@
       <c r="K50" s="10">
         <v>6</v>
       </c>
-      <c r="L50" s="125" t="s">
+      <c r="L50" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="M50" s="125"/>
-      <c r="N50" s="125"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
       <c r="O50" s="12">
         <v>2</v>
       </c>
@@ -6078,11 +6078,11 @@
       <c r="Y50" s="8">
         <v>6</v>
       </c>
-      <c r="Z50" s="125" t="s">
+      <c r="Z50" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="AA50" s="125"/>
-      <c r="AB50" s="125"/>
+      <c r="AA50" s="137"/>
+      <c r="AB50" s="137"/>
       <c r="AC50" s="12">
         <v>6</v>
       </c>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="AH50">
         <f>VLOOKUP(G11,R69:W75,6,0)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="93">
         <v>-24</v>
@@ -6109,10 +6109,10 @@
       <c r="C51" s="20">
         <v>750</v>
       </c>
-      <c r="D51" s="141" t="s">
+      <c r="D51" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="141"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="21">
         <v>14</v>
       </c>
@@ -6129,11 +6129,11 @@
       <c r="K51" s="11">
         <v>7</v>
       </c>
-      <c r="L51" s="125" t="s">
+      <c r="L51" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
+      <c r="M51" s="137"/>
+      <c r="N51" s="137"/>
       <c r="O51" s="16">
         <v>3</v>
       </c>
@@ -6160,11 +6160,11 @@
       <c r="Y51" s="8">
         <v>7</v>
       </c>
-      <c r="Z51" s="125" t="s">
+      <c r="Z51" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="AA51" s="125"/>
-      <c r="AB51" s="125"/>
+      <c r="AA51" s="137"/>
+      <c r="AB51" s="137"/>
       <c r="AC51" s="12">
         <v>9</v>
       </c>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="AH51">
         <f>VLOOKUP(L7,Y53:AE59,7,1)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AJ51" s="93">
         <v>-23</v>
@@ -6191,10 +6191,10 @@
       <c r="C52" s="20">
         <v>1000</v>
       </c>
-      <c r="D52" s="141" t="s">
+      <c r="D52" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="141"/>
+      <c r="E52" s="140"/>
       <c r="F52" s="21">
         <v>16</v>
       </c>
@@ -6211,11 +6211,11 @@
       <c r="K52" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="L52" s="157" t="s">
+      <c r="L52" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
       <c r="O52" s="6"/>
       <c r="P52" s="40" t="s">
         <v>17</v>
@@ -6226,11 +6226,11 @@
       <c r="R52" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S52" s="157" t="s">
+      <c r="S52" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="T52" s="157"/>
-      <c r="U52" s="157"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
       <c r="V52" s="6"/>
       <c r="W52" s="40" t="s">
         <v>17</v>
@@ -6239,11 +6239,11 @@
       <c r="Y52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Z52" s="160" t="s">
+      <c r="Z52" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="AA52" s="160"/>
-      <c r="AB52" s="160"/>
+      <c r="AA52" s="145"/>
+      <c r="AB52" s="145"/>
       <c r="AC52" s="59" t="s">
         <v>137</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="AH52">
         <f>VLOOKUP(L9,Y61:AE67,7,0)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="93">
         <v>-22</v>
@@ -6274,10 +6274,10 @@
       <c r="C53" s="20">
         <v>1500</v>
       </c>
-      <c r="D53" s="141" t="s">
+      <c r="D53" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="141"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="21">
         <v>18</v>
       </c>
@@ -6294,11 +6294,11 @@
       <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="L53" s="158" t="s">
+      <c r="L53" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
       <c r="O53" s="14">
         <v>-6</v>
       </c>
@@ -6309,11 +6309,11 @@
       <c r="R53" s="7">
         <v>1</v>
       </c>
-      <c r="S53" s="125" t="s">
+      <c r="S53" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="T53" s="125"/>
-      <c r="U53" s="125"/>
+      <c r="T53" s="137"/>
+      <c r="U53" s="137"/>
       <c r="V53" s="34">
         <v>-1</v>
       </c>
@@ -6326,11 +6326,11 @@
       <c r="Y53" s="7">
         <v>1</v>
       </c>
-      <c r="Z53" s="159" t="s">
+      <c r="Z53" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
+      <c r="AA53" s="150"/>
+      <c r="AB53" s="150"/>
       <c r="AC53" s="13">
         <v>-1</v>
       </c>
@@ -6360,10 +6360,10 @@
       <c r="C54" s="20">
         <v>3000</v>
       </c>
-      <c r="D54" s="141" t="s">
+      <c r="D54" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="141"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="21">
         <v>20</v>
       </c>
@@ -6380,11 +6380,11 @@
       <c r="K54" s="10">
         <v>2</v>
       </c>
-      <c r="L54" s="152" t="s">
+      <c r="L54" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="152"/>
-      <c r="N54" s="152"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="151"/>
       <c r="O54" s="12">
         <v>-3</v>
       </c>
@@ -6395,11 +6395,11 @@
       <c r="R54" s="8">
         <v>2</v>
       </c>
-      <c r="S54" s="125" t="s">
+      <c r="S54" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="T54" s="125"/>
-      <c r="U54" s="125"/>
+      <c r="T54" s="137"/>
+      <c r="U54" s="137"/>
       <c r="V54" s="35">
         <v>0</v>
       </c>
@@ -6412,11 +6412,11 @@
       <c r="Y54" s="8">
         <v>2</v>
       </c>
-      <c r="Z54" s="163" t="s">
+      <c r="Z54" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="AA54" s="163"/>
-      <c r="AB54" s="163"/>
+      <c r="AA54" s="146"/>
+      <c r="AB54" s="146"/>
       <c r="AC54" s="15">
         <v>0</v>
       </c>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="AH54">
         <f>VLOOKUP(B5,K45:Q51,7,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ54" s="93">
         <v>-20</v>
@@ -6449,10 +6449,10 @@
       <c r="C55" s="20">
         <v>6000</v>
       </c>
-      <c r="D55" s="141" t="s">
+      <c r="D55" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="141"/>
+      <c r="E55" s="140"/>
       <c r="F55" s="21">
         <v>22</v>
       </c>
@@ -6469,11 +6469,11 @@
       <c r="K55" s="10">
         <v>3</v>
       </c>
-      <c r="L55" s="152" t="s">
+      <c r="L55" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="152"/>
-      <c r="N55" s="152"/>
+      <c r="M55" s="151"/>
+      <c r="N55" s="151"/>
       <c r="O55" s="12">
         <v>-1</v>
       </c>
@@ -6484,11 +6484,11 @@
       <c r="R55" s="8">
         <v>3</v>
       </c>
-      <c r="S55" s="125" t="s">
+      <c r="S55" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="T55" s="125"/>
-      <c r="U55" s="125"/>
+      <c r="T55" s="137"/>
+      <c r="U55" s="137"/>
       <c r="V55" s="35">
         <v>1</v>
       </c>
@@ -6501,11 +6501,11 @@
       <c r="Y55" s="8">
         <v>3</v>
       </c>
-      <c r="Z55" s="163" t="s">
+      <c r="Z55" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="AA55" s="163"/>
-      <c r="AB55" s="163"/>
+      <c r="AA55" s="146"/>
+      <c r="AB55" s="146"/>
       <c r="AC55" s="15">
         <v>1</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="AH55">
         <f>VLOOKUP(B7,K53:Q59,7,0)</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="AJ55" s="93">
         <v>-19</v>
@@ -6538,10 +6538,10 @@
       <c r="C56" s="20">
         <v>10000</v>
       </c>
-      <c r="D56" s="141" t="s">
+      <c r="D56" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="141"/>
+      <c r="E56" s="140"/>
       <c r="F56" s="21">
         <v>24</v>
       </c>
@@ -6558,11 +6558,11 @@
       <c r="K56" s="10">
         <v>4</v>
       </c>
-      <c r="L56" s="152" t="s">
+      <c r="L56" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="M56" s="152"/>
-      <c r="N56" s="152"/>
+      <c r="M56" s="151"/>
+      <c r="N56" s="151"/>
       <c r="O56" s="12">
         <v>2</v>
       </c>
@@ -6573,11 +6573,11 @@
       <c r="R56" s="8">
         <v>4</v>
       </c>
-      <c r="S56" s="125" t="s">
+      <c r="S56" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="T56" s="125"/>
-      <c r="U56" s="125"/>
+      <c r="T56" s="137"/>
+      <c r="U56" s="137"/>
       <c r="V56" s="35">
         <v>3</v>
       </c>
@@ -6590,11 +6590,11 @@
       <c r="Y56" s="8">
         <v>4</v>
       </c>
-      <c r="Z56" s="163" t="s">
+      <c r="Z56" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="AA56" s="163"/>
-      <c r="AB56" s="163"/>
+      <c r="AA56" s="146"/>
+      <c r="AB56" s="146"/>
       <c r="AC56" s="15">
         <v>3</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="AH56">
         <f>VLOOKUP(G7,R53:X59,7,0)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ56" s="93">
         <v>-18</v>
@@ -6627,10 +6627,10 @@
       <c r="C57" s="20">
         <v>15000</v>
       </c>
-      <c r="D57" s="141" t="s">
+      <c r="D57" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="141"/>
+      <c r="E57" s="140"/>
       <c r="F57" s="21">
         <v>26</v>
       </c>
@@ -6647,11 +6647,11 @@
       <c r="K57" s="10">
         <v>5</v>
       </c>
-      <c r="L57" s="152" t="s">
+      <c r="L57" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="152"/>
-      <c r="N57" s="152"/>
+      <c r="M57" s="151"/>
+      <c r="N57" s="151"/>
       <c r="O57" s="12">
         <v>4</v>
       </c>
@@ -6662,11 +6662,11 @@
       <c r="R57" s="8">
         <v>5</v>
       </c>
-      <c r="S57" s="125" t="s">
+      <c r="S57" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="T57" s="125"/>
-      <c r="U57" s="125"/>
+      <c r="T57" s="137"/>
+      <c r="U57" s="137"/>
       <c r="V57" s="35">
         <v>6</v>
       </c>
@@ -6679,11 +6679,11 @@
       <c r="Y57" s="8">
         <v>5</v>
       </c>
-      <c r="Z57" s="163" t="s">
+      <c r="Z57" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="AA57" s="163"/>
-      <c r="AB57" s="163"/>
+      <c r="AA57" s="146"/>
+      <c r="AB57" s="146"/>
       <c r="AC57" s="15">
         <v>6</v>
       </c>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="AH57">
         <f>VLOOKUP(L7,Y53:AD59,6,0)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ57" s="93">
         <v>-17</v>
@@ -6716,10 +6716,10 @@
       <c r="C58" s="20">
         <v>25000</v>
       </c>
-      <c r="D58" s="141" t="s">
+      <c r="D58" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="141"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="21">
         <v>28</v>
       </c>
@@ -6736,11 +6736,11 @@
       <c r="K58" s="10">
         <v>6</v>
       </c>
-      <c r="L58" s="152" t="s">
+      <c r="L58" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="151"/>
       <c r="O58" s="12">
         <v>8</v>
       </c>
@@ -6751,11 +6751,11 @@
       <c r="R58" s="8">
         <v>6</v>
       </c>
-      <c r="S58" s="125" t="s">
+      <c r="S58" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
+      <c r="T58" s="137"/>
+      <c r="U58" s="137"/>
       <c r="V58" s="35">
         <v>9</v>
       </c>
@@ -6768,11 +6768,11 @@
       <c r="Y58" s="8">
         <v>6</v>
       </c>
-      <c r="Z58" s="163" t="s">
+      <c r="Z58" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="AA58" s="163"/>
-      <c r="AB58" s="163"/>
+      <c r="AA58" s="146"/>
+      <c r="AB58" s="146"/>
       <c r="AC58" s="15">
         <v>9</v>
       </c>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="AH58">
         <f>VLOOKUP(B9,K61:Q67,7,0)</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AJ58" s="93">
         <v>-16</v>
@@ -6805,10 +6805,10 @@
       <c r="C59" s="20">
         <v>50000</v>
       </c>
-      <c r="D59" s="141" t="s">
+      <c r="D59" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="141"/>
+      <c r="E59" s="140"/>
       <c r="F59" s="21">
         <v>30</v>
       </c>
@@ -6825,11 +6825,11 @@
       <c r="K59" s="11">
         <v>7</v>
       </c>
-      <c r="L59" s="129" t="s">
+      <c r="L59" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
       <c r="O59" s="16">
         <v>16</v>
       </c>
@@ -6840,11 +6840,11 @@
       <c r="R59" s="9">
         <v>7</v>
       </c>
-      <c r="S59" s="129" t="s">
+      <c r="S59" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="T59" s="129"/>
-      <c r="U59" s="129"/>
+      <c r="T59" s="148"/>
+      <c r="U59" s="148"/>
       <c r="V59" s="36">
         <v>12</v>
       </c>
@@ -6857,11 +6857,11 @@
       <c r="Y59" s="9">
         <v>7</v>
       </c>
-      <c r="Z59" s="161" t="s">
+      <c r="Z59" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="AA59" s="161"/>
-      <c r="AB59" s="161"/>
+      <c r="AA59" s="147"/>
+      <c r="AB59" s="147"/>
       <c r="AC59" s="17">
         <v>12</v>
       </c>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="AH59">
         <f>VLOOKUP(G9,R61:X67,7,0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="93">
         <v>-15</v>
@@ -6894,10 +6894,10 @@
       <c r="C60" s="20">
         <v>100000</v>
       </c>
-      <c r="D60" s="141" t="s">
+      <c r="D60" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="141"/>
+      <c r="E60" s="140"/>
       <c r="F60" s="21">
         <v>32</v>
       </c>
@@ -6914,11 +6914,11 @@
       <c r="K60" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L60" s="162" t="s">
+      <c r="L60" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="M60" s="162"/>
-      <c r="N60" s="162"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
       <c r="O60" s="5"/>
       <c r="P60" s="40" t="s">
         <v>17</v>
@@ -6927,11 +6927,11 @@
       <c r="R60" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S60" s="157" t="s">
+      <c r="S60" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="T60" s="157"/>
-      <c r="U60" s="157"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
       <c r="V60" s="6"/>
       <c r="W60" s="40" t="s">
         <v>17</v>
@@ -6940,11 +6940,11 @@
       <c r="Y60" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="Z60" s="162" t="s">
+      <c r="Z60" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="AA60" s="162"/>
-      <c r="AB60" s="162"/>
+      <c r="AA60" s="143"/>
+      <c r="AB60" s="143"/>
       <c r="AC60" s="60" t="s">
         <v>138</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="AH60">
         <f>VLOOKUP(L9,Y61:AD67,6,0)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ60" s="93">
         <v>-14</v>
@@ -6973,10 +6973,10 @@
       <c r="C61" s="20">
         <v>250000</v>
       </c>
-      <c r="D61" s="141" t="s">
+      <c r="D61" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="141"/>
+      <c r="E61" s="140"/>
       <c r="F61" s="21">
         <v>34</v>
       </c>
@@ -6993,11 +6993,11 @@
       <c r="K61" s="10">
         <v>1</v>
       </c>
-      <c r="L61" s="152" t="s">
+      <c r="L61" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
+      <c r="M61" s="151"/>
+      <c r="N61" s="151"/>
       <c r="O61" s="12">
         <v>-3</v>
       </c>
@@ -7010,11 +7010,11 @@
       <c r="R61" s="7">
         <v>1</v>
       </c>
-      <c r="S61" s="125" t="s">
+      <c r="S61" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="T61" s="125"/>
-      <c r="U61" s="125"/>
+      <c r="T61" s="137"/>
+      <c r="U61" s="137"/>
       <c r="V61" s="13">
         <v>0</v>
       </c>
@@ -7027,11 +7027,11 @@
       <c r="Y61" s="7">
         <v>1</v>
       </c>
-      <c r="Z61" s="151" t="s">
+      <c r="Z61" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="AA61" s="151"/>
-      <c r="AB61" s="151"/>
+      <c r="AA61" s="149"/>
+      <c r="AB61" s="149"/>
       <c r="AC61" s="14">
         <v>0</v>
       </c>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="AH61">
         <f>VLOOKUP(B11,K69:Q75,7,0)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ61" s="93">
         <v>-13</v>
@@ -7064,10 +7064,10 @@
       <c r="C62" s="27">
         <v>500000</v>
       </c>
-      <c r="D62" s="164" t="s">
+      <c r="D62" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="164"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="28">
         <v>36</v>
       </c>
@@ -7084,11 +7084,11 @@
       <c r="K62" s="10">
         <v>2</v>
       </c>
-      <c r="L62" s="152" t="s">
+      <c r="L62" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="151"/>
       <c r="O62" s="12">
         <v>-2</v>
       </c>
@@ -7101,11 +7101,11 @@
       <c r="R62" s="8">
         <v>2</v>
       </c>
-      <c r="S62" s="125" t="s">
+      <c r="S62" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="T62" s="125"/>
-      <c r="U62" s="125"/>
+      <c r="T62" s="137"/>
+      <c r="U62" s="137"/>
       <c r="V62" s="15">
         <v>-1</v>
       </c>
@@ -7118,11 +7118,11 @@
       <c r="Y62" s="8">
         <v>2</v>
       </c>
-      <c r="Z62" s="151" t="s">
+      <c r="Z62" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="AA62" s="151"/>
-      <c r="AB62" s="151"/>
+      <c r="AA62" s="149"/>
+      <c r="AB62" s="149"/>
       <c r="AC62" s="12">
         <v>2</v>
       </c>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="AH62">
         <f>VLOOKUP(G11,R69:X75,7,0)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ62" s="93">
         <v>-12</v>
@@ -7152,11 +7152,11 @@
       <c r="K63" s="10">
         <v>3</v>
       </c>
-      <c r="L63" s="152" t="s">
+      <c r="L63" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
+      <c r="M63" s="151"/>
+      <c r="N63" s="151"/>
       <c r="O63" s="12">
         <v>-1</v>
       </c>
@@ -7169,11 +7169,11 @@
       <c r="R63" s="8">
         <v>3</v>
       </c>
-      <c r="S63" s="125" t="s">
+      <c r="S63" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="T63" s="125"/>
-      <c r="U63" s="125"/>
+      <c r="T63" s="137"/>
+      <c r="U63" s="137"/>
       <c r="V63" s="15">
         <v>-2</v>
       </c>
@@ -7186,11 +7186,11 @@
       <c r="Y63" s="8">
         <v>3</v>
       </c>
-      <c r="Z63" s="151" t="s">
+      <c r="Z63" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="AA63" s="151"/>
-      <c r="AB63" s="151"/>
+      <c r="AA63" s="149"/>
+      <c r="AB63" s="149"/>
       <c r="AC63" s="12">
         <v>4</v>
       </c>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="AH63">
         <f>VLOOKUP(L11,Y69:AD75,6,0)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AJ63" s="93">
         <v>-11</v>
@@ -7216,23 +7216,23 @@
       </c>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
       <c r="E64">
         <f>B5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" s="10">
         <v>4</v>
       </c>
-      <c r="L64" s="152" t="s">
+      <c r="L64" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
+      <c r="M64" s="151"/>
+      <c r="N64" s="151"/>
       <c r="O64" s="12">
         <v>0</v>
       </c>
@@ -7245,11 +7245,11 @@
       <c r="R64" s="8">
         <v>4</v>
       </c>
-      <c r="S64" s="125" t="s">
+      <c r="S64" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="T64" s="125"/>
-      <c r="U64" s="125"/>
+      <c r="T64" s="137"/>
+      <c r="U64" s="137"/>
       <c r="V64" s="15">
         <v>-3</v>
       </c>
@@ -7262,11 +7262,11 @@
       <c r="Y64" s="8">
         <v>4</v>
       </c>
-      <c r="Z64" s="151" t="s">
+      <c r="Z64" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="AA64" s="151"/>
-      <c r="AB64" s="151"/>
+      <c r="AA64" s="149"/>
+      <c r="AB64" s="149"/>
       <c r="AC64" s="12">
         <v>6</v>
       </c>
@@ -7285,23 +7285,23 @@
       </c>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
       <c r="E65" s="2">
         <f>B7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="10">
         <v>5</v>
       </c>
-      <c r="L65" s="152" t="s">
+      <c r="L65" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="M65" s="152"/>
-      <c r="N65" s="152"/>
+      <c r="M65" s="151"/>
+      <c r="N65" s="151"/>
       <c r="O65" s="12">
         <v>1</v>
       </c>
@@ -7314,11 +7314,11 @@
       <c r="R65" s="8">
         <v>5</v>
       </c>
-      <c r="S65" s="125" t="s">
+      <c r="S65" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="T65" s="125"/>
-      <c r="U65" s="125"/>
+      <c r="T65" s="137"/>
+      <c r="U65" s="137"/>
       <c r="V65" s="15">
         <v>-6</v>
       </c>
@@ -7331,11 +7331,11 @@
       <c r="Y65" s="8">
         <v>5</v>
       </c>
-      <c r="Z65" s="151" t="s">
+      <c r="Z65" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="AA65" s="151"/>
-      <c r="AB65" s="151"/>
+      <c r="AA65" s="149"/>
+      <c r="AB65" s="149"/>
       <c r="AC65" s="12">
         <v>12</v>
       </c>
@@ -7354,23 +7354,23 @@
       </c>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
       <c r="E66">
         <f>B9</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K66" s="10">
         <v>6</v>
       </c>
-      <c r="L66" s="152" t="s">
+      <c r="L66" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="M66" s="152"/>
-      <c r="N66" s="152"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="151"/>
       <c r="O66" s="12">
         <v>2</v>
       </c>
@@ -7383,11 +7383,11 @@
       <c r="R66" s="8">
         <v>6</v>
       </c>
-      <c r="S66" s="125" t="s">
+      <c r="S66" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="T66" s="125"/>
-      <c r="U66" s="125"/>
+      <c r="T66" s="137"/>
+      <c r="U66" s="137"/>
       <c r="V66" s="15">
         <v>-9</v>
       </c>
@@ -7400,11 +7400,11 @@
       <c r="Y66" s="8">
         <v>6</v>
       </c>
-      <c r="Z66" s="151" t="s">
+      <c r="Z66" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="AA66" s="151"/>
-      <c r="AB66" s="151"/>
+      <c r="AA66" s="149"/>
+      <c r="AB66" s="149"/>
       <c r="AC66" s="12">
         <v>24</v>
       </c>
@@ -7424,23 +7424,23 @@
       </c>
     </row>
     <row r="67" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
       <c r="E67">
         <f>B11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K67" s="11">
         <v>7</v>
       </c>
-      <c r="L67" s="129" t="s">
+      <c r="L67" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="M67" s="129"/>
-      <c r="N67" s="129"/>
+      <c r="M67" s="148"/>
+      <c r="N67" s="148"/>
       <c r="O67" s="16">
         <v>3</v>
       </c>
@@ -7453,11 +7453,11 @@
       <c r="R67" s="9">
         <v>7</v>
       </c>
-      <c r="S67" s="125" t="s">
+      <c r="S67" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="T67" s="125"/>
-      <c r="U67" s="125"/>
+      <c r="T67" s="137"/>
+      <c r="U67" s="137"/>
       <c r="V67" s="17">
         <v>-12</v>
       </c>
@@ -7470,11 +7470,11 @@
       <c r="Y67" s="8">
         <v>7</v>
       </c>
-      <c r="Z67" s="151" t="s">
+      <c r="Z67" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="AA67" s="151"/>
-      <c r="AB67" s="151"/>
+      <c r="AA67" s="149"/>
+      <c r="AB67" s="149"/>
       <c r="AC67" s="12">
         <v>48</v>
       </c>
@@ -7493,23 +7493,23 @@
       </c>
     </row>
     <row r="68" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="125" t="s">
+      <c r="B68" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
       <c r="E68">
         <f>G5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="157" t="s">
+      <c r="L68" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="157"/>
-      <c r="N68" s="157"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="108"/>
       <c r="O68" s="6"/>
       <c r="P68" s="40" t="s">
         <v>138</v>
@@ -7518,11 +7518,11 @@
       <c r="R68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S68" s="157" t="s">
+      <c r="S68" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="T68" s="157"/>
-      <c r="U68" s="157"/>
+      <c r="T68" s="108"/>
+      <c r="U68" s="108"/>
       <c r="V68" s="6"/>
       <c r="W68" s="40" t="s">
         <v>138</v>
@@ -7531,11 +7531,11 @@
       <c r="Y68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Z68" s="160" t="s">
+      <c r="Z68" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="AA68" s="160"/>
-      <c r="AB68" s="160"/>
+      <c r="AA68" s="145"/>
+      <c r="AB68" s="145"/>
       <c r="AC68" s="59" t="s">
         <v>137</v>
       </c>
@@ -7543,10 +7543,10 @@
       <c r="AE68" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AF68" s="157" t="s">
+      <c r="AF68" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="AG68" s="157"/>
+      <c r="AG68" s="108"/>
       <c r="AJ68" s="93">
         <v>-6</v>
       </c>
@@ -7555,23 +7555,23 @@
       </c>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B69" s="125" t="s">
+      <c r="B69" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
       <c r="E69">
         <f>G7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
       </c>
-      <c r="L69" s="158" t="s">
+      <c r="L69" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="M69" s="158"/>
-      <c r="N69" s="158"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
       <c r="O69" s="14">
         <v>0</v>
       </c>
@@ -7584,11 +7584,11 @@
       <c r="R69" s="7">
         <v>1</v>
       </c>
-      <c r="S69" s="151" t="s">
+      <c r="S69" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="T69" s="151"/>
-      <c r="U69" s="151"/>
+      <c r="T69" s="149"/>
+      <c r="U69" s="149"/>
       <c r="V69" s="34">
         <v>-2</v>
       </c>
@@ -7601,11 +7601,11 @@
       <c r="Y69" s="7">
         <v>1</v>
       </c>
-      <c r="Z69" s="159" t="s">
+      <c r="Z69" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="AA69" s="159"/>
-      <c r="AB69" s="159"/>
+      <c r="AA69" s="150"/>
+      <c r="AB69" s="150"/>
       <c r="AC69" s="13">
         <v>-15</v>
       </c>
@@ -7615,11 +7615,11 @@
       <c r="AE69" s="35">
         <v>0.25</v>
       </c>
-      <c r="AF69" s="181">
+      <c r="AF69" s="109">
         <f>VLOOKUP(L11,Y69:AE75,7,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AG69" s="181"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG69" s="109"/>
       <c r="AJ69" s="93">
         <v>-5</v>
       </c>
@@ -7628,23 +7628,23 @@
       </c>
     </row>
     <row r="70" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
       <c r="E70">
         <f>G9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="10">
         <v>2</v>
       </c>
-      <c r="L70" s="152" t="s">
+      <c r="L70" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="M70" s="152"/>
-      <c r="N70" s="152"/>
+      <c r="M70" s="151"/>
+      <c r="N70" s="151"/>
       <c r="O70" s="12">
         <v>1</v>
       </c>
@@ -7657,11 +7657,11 @@
       <c r="R70" s="8">
         <v>2</v>
       </c>
-      <c r="S70" s="151" t="s">
+      <c r="S70" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="T70" s="151"/>
-      <c r="U70" s="151"/>
+      <c r="T70" s="149"/>
+      <c r="U70" s="149"/>
       <c r="V70" s="35">
         <v>-1</v>
       </c>
@@ -7674,11 +7674,11 @@
       <c r="Y70" s="8">
         <v>2</v>
       </c>
-      <c r="Z70" s="151" t="s">
+      <c r="Z70" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="AA70" s="151"/>
-      <c r="AB70" s="151"/>
+      <c r="AA70" s="149"/>
+      <c r="AB70" s="149"/>
       <c r="AC70" s="15">
         <v>-10</v>
       </c>
@@ -7697,23 +7697,23 @@
       </c>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B71" s="125" t="s">
+      <c r="B71" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
       <c r="E71">
         <f>G11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K71" s="10">
         <v>3</v>
       </c>
-      <c r="L71" s="152" t="s">
+      <c r="L71" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="M71" s="152"/>
-      <c r="N71" s="152"/>
+      <c r="M71" s="151"/>
+      <c r="N71" s="151"/>
       <c r="O71" s="12">
         <v>2</v>
       </c>
@@ -7726,11 +7726,11 @@
       <c r="R71" s="8">
         <v>3</v>
       </c>
-      <c r="S71" s="151" t="s">
+      <c r="S71" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="T71" s="151"/>
-      <c r="U71" s="151"/>
+      <c r="T71" s="149"/>
+      <c r="U71" s="149"/>
       <c r="V71" s="35">
         <v>0</v>
       </c>
@@ -7743,11 +7743,11 @@
       <c r="Y71" s="8">
         <v>3</v>
       </c>
-      <c r="Z71" s="151" t="s">
+      <c r="Z71" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="AA71" s="151"/>
-      <c r="AB71" s="151"/>
+      <c r="AA71" s="149"/>
+      <c r="AB71" s="149"/>
       <c r="AC71" s="15">
         <v>0</v>
       </c>
@@ -7766,23 +7766,23 @@
       </c>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
       <c r="E72">
         <f>L5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" s="10">
         <v>4</v>
       </c>
-      <c r="L72" s="152" t="s">
+      <c r="L72" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="M72" s="152"/>
-      <c r="N72" s="152"/>
+      <c r="M72" s="151"/>
+      <c r="N72" s="151"/>
       <c r="O72" s="12">
         <v>3</v>
       </c>
@@ -7795,11 +7795,11 @@
       <c r="R72" s="8">
         <v>4</v>
       </c>
-      <c r="S72" s="151" t="s">
+      <c r="S72" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="T72" s="151"/>
-      <c r="U72" s="151"/>
+      <c r="T72" s="149"/>
+      <c r="U72" s="149"/>
       <c r="V72" s="35">
         <v>1</v>
       </c>
@@ -7812,11 +7812,11 @@
       <c r="Y72" s="8">
         <v>4</v>
       </c>
-      <c r="Z72" s="151" t="s">
+      <c r="Z72" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="AA72" s="151"/>
-      <c r="AB72" s="151"/>
+      <c r="AA72" s="149"/>
+      <c r="AB72" s="149"/>
       <c r="AC72" s="15">
         <v>10</v>
       </c>
@@ -7835,23 +7835,23 @@
       </c>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B73" s="125" t="s">
+      <c r="B73" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="125"/>
-      <c r="D73" s="125"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
       <c r="E73">
         <f>L7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" s="10">
         <v>5</v>
       </c>
-      <c r="L73" s="152" t="s">
+      <c r="L73" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="M73" s="152"/>
-      <c r="N73" s="152"/>
+      <c r="M73" s="151"/>
+      <c r="N73" s="151"/>
       <c r="O73" s="12">
         <v>6</v>
       </c>
@@ -7864,11 +7864,11 @@
       <c r="R73" s="8">
         <v>5</v>
       </c>
-      <c r="S73" s="151" t="s">
+      <c r="S73" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="T73" s="151"/>
-      <c r="U73" s="151"/>
+      <c r="T73" s="149"/>
+      <c r="U73" s="149"/>
       <c r="V73" s="35">
         <v>4</v>
       </c>
@@ -7881,11 +7881,11 @@
       <c r="Y73" s="8">
         <v>5</v>
       </c>
-      <c r="Z73" s="151" t="s">
+      <c r="Z73" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="AA73" s="151"/>
-      <c r="AB73" s="151"/>
+      <c r="AA73" s="149"/>
+      <c r="AB73" s="149"/>
       <c r="AC73" s="15">
         <v>20</v>
       </c>
@@ -7904,23 +7904,23 @@
       </c>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B74" s="125" t="s">
+      <c r="B74" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="137"/>
       <c r="E74">
         <f>L9</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74" s="10">
         <v>6</v>
       </c>
-      <c r="L74" s="152" t="s">
+      <c r="L74" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="M74" s="152"/>
-      <c r="N74" s="152"/>
+      <c r="M74" s="151"/>
+      <c r="N74" s="151"/>
       <c r="O74" s="12">
         <v>12</v>
       </c>
@@ -7933,11 +7933,11 @@
       <c r="R74" s="8">
         <v>6</v>
       </c>
-      <c r="S74" s="151" t="s">
+      <c r="S74" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="T74" s="151"/>
-      <c r="U74" s="151"/>
+      <c r="T74" s="149"/>
+      <c r="U74" s="149"/>
       <c r="V74" s="35">
         <v>8</v>
       </c>
@@ -7950,11 +7950,11 @@
       <c r="Y74" s="8">
         <v>6</v>
       </c>
-      <c r="Z74" s="151" t="s">
+      <c r="Z74" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="AA74" s="151"/>
-      <c r="AB74" s="151"/>
+      <c r="AA74" s="149"/>
+      <c r="AB74" s="149"/>
       <c r="AC74" s="15">
         <v>30</v>
       </c>
@@ -7973,23 +7973,23 @@
       </c>
     </row>
     <row r="75" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="125" t="s">
+      <c r="B75" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
       <c r="E75">
         <f>L11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K75" s="11">
         <v>7</v>
       </c>
-      <c r="L75" s="129" t="s">
+      <c r="L75" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="M75" s="129"/>
-      <c r="N75" s="129"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="148"/>
       <c r="O75" s="16">
         <v>24</v>
       </c>
@@ -8002,11 +8002,11 @@
       <c r="R75" s="9">
         <v>7</v>
       </c>
-      <c r="S75" s="129" t="s">
+      <c r="S75" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="T75" s="129"/>
-      <c r="U75" s="129"/>
+      <c r="T75" s="148"/>
+      <c r="U75" s="148"/>
       <c r="V75" s="36">
         <v>16</v>
       </c>
@@ -8019,11 +8019,11 @@
       <c r="Y75" s="9">
         <v>7</v>
       </c>
-      <c r="Z75" s="161" t="s">
+      <c r="Z75" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="AA75" s="161"/>
-      <c r="AB75" s="161"/>
+      <c r="AA75" s="147"/>
+      <c r="AB75" s="147"/>
       <c r="AC75" s="17">
         <v>50</v>
       </c>
@@ -8057,27 +8057,27 @@
         <f>B3</f>
         <v>1000</v>
       </c>
-      <c r="K77" s="107" t="s">
+      <c r="K77" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="L77" s="107"/>
+      <c r="L77" s="165"/>
       <c r="M77" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="N77" s="107" t="s">
+      <c r="N77" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="O77" s="107"/>
-      <c r="P77" s="107"/>
-      <c r="Q77" s="107"/>
-      <c r="R77" s="107"/>
-      <c r="S77" s="107"/>
-      <c r="T77" s="107"/>
-      <c r="U77" s="107"/>
-      <c r="V77" s="107"/>
-      <c r="W77" s="107"/>
-      <c r="X77" s="107"/>
-      <c r="Y77" s="107"/>
+      <c r="O77" s="165"/>
+      <c r="P77" s="165"/>
+      <c r="Q77" s="165"/>
+      <c r="R77" s="165"/>
+      <c r="S77" s="165"/>
+      <c r="T77" s="165"/>
+      <c r="U77" s="165"/>
+      <c r="V77" s="165"/>
+      <c r="W77" s="165"/>
+      <c r="X77" s="165"/>
+      <c r="Y77" s="165"/>
       <c r="Z77" s="99" t="s">
         <v>170</v>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="C78" s="106">
         <f>B17</f>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="J78" s="49">
         <v>0.1</v>
@@ -8104,25 +8104,25 @@
       </c>
       <c r="L78" s="56">
         <f>H3*0.1</f>
-        <v>2500</v>
+        <v>55.6</v>
       </c>
       <c r="M78" s="53">
         <v>-3</v>
       </c>
-      <c r="N78" s="126" t="s">
+      <c r="N78" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="O78" s="126"/>
-      <c r="P78" s="126"/>
-      <c r="Q78" s="126"/>
-      <c r="R78" s="126"/>
-      <c r="S78" s="126"/>
-      <c r="T78" s="126"/>
-      <c r="U78" s="126"/>
-      <c r="V78" s="126"/>
-      <c r="W78" s="126"/>
-      <c r="X78" s="126"/>
-      <c r="Y78" s="126"/>
+      <c r="O78" s="167"/>
+      <c r="P78" s="167"/>
+      <c r="Q78" s="167"/>
+      <c r="R78" s="167"/>
+      <c r="S78" s="167"/>
+      <c r="T78" s="167"/>
+      <c r="U78" s="167"/>
+      <c r="V78" s="167"/>
+      <c r="W78" s="167"/>
+      <c r="X78" s="167"/>
+      <c r="Y78" s="167"/>
       <c r="Z78" s="99">
         <v>0</v>
       </c>
@@ -8146,29 +8146,29 @@
       </c>
       <c r="K79" s="56">
         <f>L78+1</f>
-        <v>2501</v>
+        <v>56.6</v>
       </c>
       <c r="L79" s="56">
         <f>H3*0.25</f>
-        <v>6250</v>
+        <v>139</v>
       </c>
       <c r="M79" s="53">
         <v>-2</v>
       </c>
-      <c r="N79" s="126" t="s">
+      <c r="N79" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="O79" s="126"/>
-      <c r="P79" s="126"/>
-      <c r="Q79" s="126"/>
-      <c r="R79" s="126"/>
-      <c r="S79" s="126"/>
-      <c r="T79" s="126"/>
-      <c r="U79" s="126"/>
-      <c r="V79" s="126"/>
-      <c r="W79" s="126"/>
-      <c r="X79" s="126"/>
-      <c r="Y79" s="126"/>
+      <c r="O79" s="167"/>
+      <c r="P79" s="167"/>
+      <c r="Q79" s="167"/>
+      <c r="R79" s="167"/>
+      <c r="S79" s="167"/>
+      <c r="T79" s="167"/>
+      <c r="U79" s="167"/>
+      <c r="V79" s="167"/>
+      <c r="W79" s="167"/>
+      <c r="X79" s="167"/>
+      <c r="Y79" s="167"/>
       <c r="Z79" s="99">
         <v>1</v>
       </c>
@@ -8185,29 +8185,29 @@
       </c>
       <c r="K80" s="56">
         <f t="shared" ref="K80:K85" si="5">L79+1</f>
-        <v>6251</v>
+        <v>140</v>
       </c>
       <c r="L80" s="56">
         <f>H3*0.5</f>
-        <v>12500</v>
+        <v>278</v>
       </c>
       <c r="M80" s="53">
         <v>-1</v>
       </c>
-      <c r="N80" s="126" t="s">
+      <c r="N80" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="O80" s="126"/>
-      <c r="P80" s="126"/>
-      <c r="Q80" s="126"/>
-      <c r="R80" s="126"/>
-      <c r="S80" s="126"/>
-      <c r="T80" s="126"/>
-      <c r="U80" s="126"/>
-      <c r="V80" s="126"/>
-      <c r="W80" s="126"/>
-      <c r="X80" s="126"/>
-      <c r="Y80" s="126"/>
+      <c r="O80" s="167"/>
+      <c r="P80" s="167"/>
+      <c r="Q80" s="167"/>
+      <c r="R80" s="167"/>
+      <c r="S80" s="167"/>
+      <c r="T80" s="167"/>
+      <c r="U80" s="167"/>
+      <c r="V80" s="167"/>
+      <c r="W80" s="167"/>
+      <c r="X80" s="167"/>
+      <c r="Y80" s="167"/>
       <c r="Z80" s="99">
         <v>1</v>
       </c>
@@ -8224,29 +8224,29 @@
       </c>
       <c r="K81" s="56">
         <f t="shared" si="5"/>
-        <v>12501</v>
+        <v>279</v>
       </c>
       <c r="L81" s="56">
         <f>H3*0.75</f>
-        <v>18750</v>
+        <v>417</v>
       </c>
       <c r="M81" s="53">
         <v>3</v>
       </c>
-      <c r="N81" s="127" t="s">
+      <c r="N81" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="O81" s="127"/>
-      <c r="P81" s="127"/>
-      <c r="Q81" s="127"/>
-      <c r="R81" s="127"/>
-      <c r="S81" s="127"/>
-      <c r="T81" s="127"/>
-      <c r="U81" s="127"/>
-      <c r="V81" s="127"/>
-      <c r="W81" s="127"/>
-      <c r="X81" s="127"/>
-      <c r="Y81" s="127"/>
+      <c r="O81" s="171"/>
+      <c r="P81" s="171"/>
+      <c r="Q81" s="171"/>
+      <c r="R81" s="171"/>
+      <c r="S81" s="171"/>
+      <c r="T81" s="171"/>
+      <c r="U81" s="171"/>
+      <c r="V81" s="171"/>
+      <c r="W81" s="171"/>
+      <c r="X81" s="171"/>
+      <c r="Y81" s="171"/>
       <c r="Z81" s="99">
         <v>2</v>
       </c>
@@ -8263,29 +8263,29 @@
       </c>
       <c r="K82" s="56">
         <f t="shared" si="5"/>
-        <v>18751</v>
+        <v>418</v>
       </c>
       <c r="L82" s="56">
         <f>H3</f>
-        <v>25000</v>
+        <v>556</v>
       </c>
       <c r="M82" s="53">
         <v>6</v>
       </c>
-      <c r="N82" s="126" t="s">
+      <c r="N82" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="O82" s="126"/>
-      <c r="P82" s="126"/>
-      <c r="Q82" s="126"/>
-      <c r="R82" s="126"/>
-      <c r="S82" s="126"/>
-      <c r="T82" s="126"/>
-      <c r="U82" s="126"/>
-      <c r="V82" s="126"/>
-      <c r="W82" s="126"/>
-      <c r="X82" s="126"/>
-      <c r="Y82" s="126"/>
+      <c r="O82" s="167"/>
+      <c r="P82" s="167"/>
+      <c r="Q82" s="167"/>
+      <c r="R82" s="167"/>
+      <c r="S82" s="167"/>
+      <c r="T82" s="167"/>
+      <c r="U82" s="167"/>
+      <c r="V82" s="167"/>
+      <c r="W82" s="167"/>
+      <c r="X82" s="167"/>
+      <c r="Y82" s="167"/>
       <c r="Z82" s="99">
         <v>3</v>
       </c>
@@ -8302,29 +8302,29 @@
       </c>
       <c r="K83" s="56">
         <f t="shared" si="5"/>
-        <v>25001</v>
+        <v>557</v>
       </c>
       <c r="L83" s="56">
         <f>H3*1.25</f>
-        <v>31250</v>
+        <v>695</v>
       </c>
       <c r="M83" s="53">
         <v>-1</v>
       </c>
-      <c r="N83" s="127" t="s">
+      <c r="N83" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="O83" s="127"/>
-      <c r="P83" s="127"/>
-      <c r="Q83" s="127"/>
-      <c r="R83" s="127"/>
-      <c r="S83" s="127"/>
-      <c r="T83" s="127"/>
-      <c r="U83" s="127"/>
-      <c r="V83" s="127"/>
-      <c r="W83" s="127"/>
-      <c r="X83" s="127"/>
-      <c r="Y83" s="127"/>
+      <c r="O83" s="171"/>
+      <c r="P83" s="171"/>
+      <c r="Q83" s="171"/>
+      <c r="R83" s="171"/>
+      <c r="S83" s="171"/>
+      <c r="T83" s="171"/>
+      <c r="U83" s="171"/>
+      <c r="V83" s="171"/>
+      <c r="W83" s="171"/>
+      <c r="X83" s="171"/>
+      <c r="Y83" s="171"/>
       <c r="Z83" s="99">
         <v>2</v>
       </c>
@@ -8341,29 +8341,29 @@
       </c>
       <c r="K84" s="56">
         <f t="shared" si="5"/>
-        <v>31251</v>
+        <v>696</v>
       </c>
       <c r="L84" s="56">
         <f>H3*1.5</f>
-        <v>37500</v>
+        <v>834</v>
       </c>
       <c r="M84" s="53">
         <v>-2</v>
       </c>
-      <c r="N84" s="127" t="s">
+      <c r="N84" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="O84" s="127"/>
-      <c r="P84" s="127"/>
-      <c r="Q84" s="127"/>
-      <c r="R84" s="127"/>
-      <c r="S84" s="127"/>
-      <c r="T84" s="127"/>
-      <c r="U84" s="127"/>
-      <c r="V84" s="127"/>
-      <c r="W84" s="127"/>
-      <c r="X84" s="127"/>
-      <c r="Y84" s="127"/>
+      <c r="O84" s="171"/>
+      <c r="P84" s="171"/>
+      <c r="Q84" s="171"/>
+      <c r="R84" s="171"/>
+      <c r="S84" s="171"/>
+      <c r="T84" s="171"/>
+      <c r="U84" s="171"/>
+      <c r="V84" s="171"/>
+      <c r="W84" s="171"/>
+      <c r="X84" s="171"/>
+      <c r="Y84" s="171"/>
       <c r="Z84" s="99">
         <v>-2</v>
       </c>
@@ -8380,29 +8380,29 @@
       </c>
       <c r="K85" s="56">
         <f t="shared" si="5"/>
-        <v>37501</v>
+        <v>835</v>
       </c>
       <c r="L85" s="56">
         <f>H3*2</f>
-        <v>50000</v>
+        <v>1112</v>
       </c>
       <c r="M85" s="53">
         <v>-3</v>
       </c>
-      <c r="N85" s="128" t="s">
+      <c r="N85" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="O85" s="128"/>
-      <c r="P85" s="128"/>
-      <c r="Q85" s="128"/>
-      <c r="R85" s="128"/>
-      <c r="S85" s="128"/>
-      <c r="T85" s="128"/>
-      <c r="U85" s="128"/>
-      <c r="V85" s="128"/>
-      <c r="W85" s="128"/>
-      <c r="X85" s="128"/>
-      <c r="Y85" s="128"/>
+      <c r="O85" s="166"/>
+      <c r="P85" s="166"/>
+      <c r="Q85" s="166"/>
+      <c r="R85" s="166"/>
+      <c r="S85" s="166"/>
+      <c r="T85" s="166"/>
+      <c r="U85" s="166"/>
+      <c r="V85" s="166"/>
+      <c r="W85" s="166"/>
+      <c r="X85" s="166"/>
+      <c r="Y85" s="166"/>
       <c r="Z85" s="99">
         <v>-3</v>
       </c>
@@ -8416,12 +8416,12 @@
     <row r="86" spans="10:37" x14ac:dyDescent="0.25">
       <c r="J86" s="49"/>
       <c r="K86" s="50"/>
-      <c r="L86" s="125"/>
-      <c r="M86" s="125"/>
-      <c r="N86" s="125"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
       <c r="Z86" s="100">
         <f>VLOOKUP(E14,M78:Z85,14,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ86" s="93">
         <v>12</v>
@@ -8432,27 +8432,27 @@
     </row>
     <row r="87" spans="10:37" x14ac:dyDescent="0.25">
       <c r="J87" s="49"/>
-      <c r="K87" s="107" t="s">
+      <c r="K87" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="L87" s="107"/>
+      <c r="L87" s="165"/>
       <c r="M87" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="N87" s="107" t="s">
+      <c r="N87" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="O87" s="107"/>
-      <c r="P87" s="107"/>
-      <c r="Q87" s="107"/>
-      <c r="R87" s="107"/>
-      <c r="S87" s="107"/>
-      <c r="T87" s="107"/>
-      <c r="U87" s="107"/>
-      <c r="V87" s="107"/>
-      <c r="W87" s="107"/>
-      <c r="X87" s="107"/>
-      <c r="Y87" s="107"/>
+      <c r="O87" s="165"/>
+      <c r="P87" s="165"/>
+      <c r="Q87" s="165"/>
+      <c r="R87" s="165"/>
+      <c r="S87" s="165"/>
+      <c r="T87" s="165"/>
+      <c r="U87" s="165"/>
+      <c r="V87" s="165"/>
+      <c r="W87" s="165"/>
+      <c r="X87" s="165"/>
+      <c r="Y87" s="165"/>
       <c r="Z87" s="99" t="s">
         <v>170</v>
       </c>
@@ -8480,20 +8480,20 @@
       <c r="M88" s="53">
         <v>-3</v>
       </c>
-      <c r="N88" s="128" t="s">
+      <c r="N88" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="O88" s="128"/>
-      <c r="P88" s="128"/>
-      <c r="Q88" s="128"/>
-      <c r="R88" s="128"/>
-      <c r="S88" s="128"/>
-      <c r="T88" s="128"/>
-      <c r="U88" s="128"/>
-      <c r="V88" s="128"/>
-      <c r="W88" s="128"/>
-      <c r="X88" s="128"/>
-      <c r="Y88" s="128"/>
+      <c r="O88" s="166"/>
+      <c r="P88" s="166"/>
+      <c r="Q88" s="166"/>
+      <c r="R88" s="166"/>
+      <c r="S88" s="166"/>
+      <c r="T88" s="166"/>
+      <c r="U88" s="166"/>
+      <c r="V88" s="166"/>
+      <c r="W88" s="166"/>
+      <c r="X88" s="166"/>
+      <c r="Y88" s="166"/>
       <c r="Z88" s="99">
         <v>-3</v>
       </c>
@@ -8522,20 +8522,20 @@
       <c r="M89" s="53">
         <v>2</v>
       </c>
-      <c r="N89" s="126" t="s">
+      <c r="N89" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="O89" s="126"/>
-      <c r="P89" s="126"/>
-      <c r="Q89" s="126"/>
-      <c r="R89" s="126"/>
-      <c r="S89" s="126"/>
-      <c r="T89" s="126"/>
-      <c r="U89" s="126"/>
-      <c r="V89" s="126"/>
-      <c r="W89" s="126"/>
-      <c r="X89" s="126"/>
-      <c r="Y89" s="126"/>
+      <c r="O89" s="167"/>
+      <c r="P89" s="167"/>
+      <c r="Q89" s="167"/>
+      <c r="R89" s="167"/>
+      <c r="S89" s="167"/>
+      <c r="T89" s="167"/>
+      <c r="U89" s="167"/>
+      <c r="V89" s="167"/>
+      <c r="W89" s="167"/>
+      <c r="X89" s="167"/>
+      <c r="Y89" s="167"/>
       <c r="Z89" s="99">
         <v>1</v>
       </c>
@@ -8564,20 +8564,20 @@
       <c r="M90" s="53">
         <v>6</v>
       </c>
-      <c r="N90" s="126" t="s">
+      <c r="N90" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="O90" s="126"/>
-      <c r="P90" s="126"/>
-      <c r="Q90" s="126"/>
-      <c r="R90" s="126"/>
-      <c r="S90" s="126"/>
-      <c r="T90" s="126"/>
-      <c r="U90" s="126"/>
-      <c r="V90" s="126"/>
-      <c r="W90" s="126"/>
-      <c r="X90" s="126"/>
-      <c r="Y90" s="126"/>
+      <c r="O90" s="167"/>
+      <c r="P90" s="167"/>
+      <c r="Q90" s="167"/>
+      <c r="R90" s="167"/>
+      <c r="S90" s="167"/>
+      <c r="T90" s="167"/>
+      <c r="U90" s="167"/>
+      <c r="V90" s="167"/>
+      <c r="W90" s="167"/>
+      <c r="X90" s="167"/>
+      <c r="Y90" s="167"/>
       <c r="Z90" s="99">
         <v>3</v>
       </c>
@@ -8606,20 +8606,20 @@
       <c r="M91" s="53">
         <v>12</v>
       </c>
-      <c r="N91" s="126" t="s">
+      <c r="N91" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="O91" s="126"/>
-      <c r="P91" s="126"/>
-      <c r="Q91" s="126"/>
-      <c r="R91" s="126"/>
-      <c r="S91" s="126"/>
-      <c r="T91" s="126"/>
-      <c r="U91" s="126"/>
-      <c r="V91" s="126"/>
-      <c r="W91" s="126"/>
-      <c r="X91" s="126"/>
-      <c r="Y91" s="126"/>
+      <c r="O91" s="167"/>
+      <c r="P91" s="167"/>
+      <c r="Q91" s="167"/>
+      <c r="R91" s="167"/>
+      <c r="S91" s="167"/>
+      <c r="T91" s="167"/>
+      <c r="U91" s="167"/>
+      <c r="V91" s="167"/>
+      <c r="W91" s="167"/>
+      <c r="X91" s="167"/>
+      <c r="Y91" s="167"/>
       <c r="Z91" s="99">
         <v>7</v>
       </c>
@@ -8636,7 +8636,7 @@
     <row r="92" spans="10:37" x14ac:dyDescent="0.25">
       <c r="Z92" s="100">
         <f>VLOOKUP(E16,M88:Z92,14,0)</f>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="AJ92" s="93">
         <v>18</v>
@@ -8647,27 +8647,27 @@
     </row>
     <row r="93" spans="10:37" x14ac:dyDescent="0.25">
       <c r="J93" s="49"/>
-      <c r="K93" s="107" t="s">
+      <c r="K93" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="L93" s="107"/>
+      <c r="L93" s="165"/>
       <c r="M93" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="N93" s="107" t="s">
+      <c r="N93" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="O93" s="107"/>
-      <c r="P93" s="107"/>
-      <c r="Q93" s="107"/>
-      <c r="R93" s="107"/>
-      <c r="S93" s="107"/>
-      <c r="T93" s="107"/>
-      <c r="U93" s="107"/>
-      <c r="V93" s="107"/>
-      <c r="W93" s="107"/>
-      <c r="X93" s="107"/>
-      <c r="Y93" s="107"/>
+      <c r="O93" s="165"/>
+      <c r="P93" s="165"/>
+      <c r="Q93" s="165"/>
+      <c r="R93" s="165"/>
+      <c r="S93" s="165"/>
+      <c r="T93" s="165"/>
+      <c r="U93" s="165"/>
+      <c r="V93" s="165"/>
+      <c r="W93" s="165"/>
+      <c r="X93" s="165"/>
+      <c r="Y93" s="165"/>
       <c r="Z93" s="99" t="s">
         <v>170</v>
       </c>
@@ -8692,20 +8692,20 @@
       <c r="M94" s="53">
         <v>0</v>
       </c>
-      <c r="N94" s="128" t="s">
+      <c r="N94" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="O94" s="128"/>
-      <c r="P94" s="128"/>
-      <c r="Q94" s="128"/>
-      <c r="R94" s="128"/>
-      <c r="S94" s="128"/>
-      <c r="T94" s="128"/>
-      <c r="U94" s="128"/>
-      <c r="V94" s="128"/>
-      <c r="W94" s="128"/>
-      <c r="X94" s="128"/>
-      <c r="Y94" s="128"/>
+      <c r="O94" s="166"/>
+      <c r="P94" s="166"/>
+      <c r="Q94" s="166"/>
+      <c r="R94" s="166"/>
+      <c r="S94" s="166"/>
+      <c r="T94" s="166"/>
+      <c r="U94" s="166"/>
+      <c r="V94" s="166"/>
+      <c r="W94" s="166"/>
+      <c r="X94" s="166"/>
+      <c r="Y94" s="166"/>
       <c r="Z94" s="99">
         <v>0</v>
       </c>
@@ -8731,20 +8731,20 @@
       <c r="M95" s="53">
         <v>5</v>
       </c>
-      <c r="N95" s="126" t="s">
+      <c r="N95" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="O95" s="126"/>
-      <c r="P95" s="126"/>
-      <c r="Q95" s="126"/>
-      <c r="R95" s="126"/>
-      <c r="S95" s="126"/>
-      <c r="T95" s="126"/>
-      <c r="U95" s="126"/>
-      <c r="V95" s="126"/>
-      <c r="W95" s="126"/>
-      <c r="X95" s="126"/>
-      <c r="Y95" s="126"/>
+      <c r="O95" s="167"/>
+      <c r="P95" s="167"/>
+      <c r="Q95" s="167"/>
+      <c r="R95" s="167"/>
+      <c r="S95" s="167"/>
+      <c r="T95" s="167"/>
+      <c r="U95" s="167"/>
+      <c r="V95" s="167"/>
+      <c r="W95" s="167"/>
+      <c r="X95" s="167"/>
+      <c r="Y95" s="167"/>
       <c r="Z95" s="99">
         <v>1</v>
       </c>
@@ -8770,20 +8770,20 @@
       <c r="M96" s="53">
         <v>10</v>
       </c>
-      <c r="N96" s="126" t="s">
+      <c r="N96" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="O96" s="126"/>
-      <c r="P96" s="126"/>
-      <c r="Q96" s="126"/>
-      <c r="R96" s="126"/>
-      <c r="S96" s="126"/>
-      <c r="T96" s="126"/>
-      <c r="U96" s="126"/>
-      <c r="V96" s="126"/>
-      <c r="W96" s="126"/>
-      <c r="X96" s="126"/>
-      <c r="Y96" s="126"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="167"/>
+      <c r="Q96" s="167"/>
+      <c r="R96" s="167"/>
+      <c r="S96" s="167"/>
+      <c r="T96" s="167"/>
+      <c r="U96" s="167"/>
+      <c r="V96" s="167"/>
+      <c r="W96" s="167"/>
+      <c r="X96" s="167"/>
+      <c r="Y96" s="167"/>
       <c r="Z96" s="99">
         <v>3</v>
       </c>
@@ -8809,20 +8809,20 @@
       <c r="M97" s="53">
         <v>15</v>
       </c>
-      <c r="N97" s="126" t="s">
+      <c r="N97" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="O97" s="126"/>
-      <c r="P97" s="126"/>
-      <c r="Q97" s="126"/>
-      <c r="R97" s="126"/>
-      <c r="S97" s="126"/>
-      <c r="T97" s="126"/>
-      <c r="U97" s="126"/>
-      <c r="V97" s="126"/>
-      <c r="W97" s="126"/>
-      <c r="X97" s="126"/>
-      <c r="Y97" s="126"/>
+      <c r="O97" s="167"/>
+      <c r="P97" s="167"/>
+      <c r="Q97" s="167"/>
+      <c r="R97" s="167"/>
+      <c r="S97" s="167"/>
+      <c r="T97" s="167"/>
+      <c r="U97" s="167"/>
+      <c r="V97" s="167"/>
+      <c r="W97" s="167"/>
+      <c r="X97" s="167"/>
+      <c r="Y97" s="167"/>
       <c r="Z97" s="99">
         <v>5</v>
       </c>
@@ -8863,27 +8863,27 @@
     </row>
     <row r="99" spans="10:37" x14ac:dyDescent="0.25">
       <c r="J99" s="49"/>
-      <c r="K99" s="107" t="s">
+      <c r="K99" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="L99" s="107"/>
+      <c r="L99" s="165"/>
       <c r="M99" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="N99" s="107" t="s">
+      <c r="N99" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="O99" s="107"/>
-      <c r="P99" s="107"/>
-      <c r="Q99" s="107"/>
-      <c r="R99" s="107"/>
-      <c r="S99" s="107"/>
-      <c r="T99" s="107"/>
-      <c r="U99" s="107"/>
-      <c r="V99" s="107"/>
-      <c r="W99" s="107"/>
-      <c r="X99" s="107"/>
-      <c r="Y99" s="107"/>
+      <c r="O99" s="165"/>
+      <c r="P99" s="165"/>
+      <c r="Q99" s="165"/>
+      <c r="R99" s="165"/>
+      <c r="S99" s="165"/>
+      <c r="T99" s="165"/>
+      <c r="U99" s="165"/>
+      <c r="V99" s="165"/>
+      <c r="W99" s="165"/>
+      <c r="X99" s="165"/>
+      <c r="Y99" s="165"/>
       <c r="Z99" s="99" t="s">
         <v>170</v>
       </c>
@@ -8903,25 +8903,25 @@
       </c>
       <c r="L100" s="52">
         <f>H3*0.05</f>
-        <v>1250</v>
+        <v>27.8</v>
       </c>
       <c r="M100" s="53">
         <v>0</v>
       </c>
-      <c r="N100" s="128" t="s">
+      <c r="N100" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="O100" s="128"/>
-      <c r="P100" s="128"/>
-      <c r="Q100" s="128"/>
-      <c r="R100" s="128"/>
-      <c r="S100" s="128"/>
-      <c r="T100" s="128"/>
-      <c r="U100" s="128"/>
-      <c r="V100" s="128"/>
-      <c r="W100" s="128"/>
-      <c r="X100" s="128"/>
-      <c r="Y100" s="128"/>
+      <c r="O100" s="166"/>
+      <c r="P100" s="166"/>
+      <c r="Q100" s="166"/>
+      <c r="R100" s="166"/>
+      <c r="S100" s="166"/>
+      <c r="T100" s="166"/>
+      <c r="U100" s="166"/>
+      <c r="V100" s="166"/>
+      <c r="W100" s="166"/>
+      <c r="X100" s="166"/>
+      <c r="Y100" s="166"/>
       <c r="Z100" s="99">
         <v>-1</v>
       </c>
@@ -8938,29 +8938,29 @@
       </c>
       <c r="K101" s="52">
         <f>L100+1</f>
-        <v>1251</v>
+        <v>28.8</v>
       </c>
       <c r="L101" s="54">
         <f>H3*0.1</f>
-        <v>2500</v>
+        <v>55.6</v>
       </c>
       <c r="M101" s="53">
         <v>5</v>
       </c>
-      <c r="N101" s="126" t="s">
+      <c r="N101" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="O101" s="126"/>
-      <c r="P101" s="126"/>
-      <c r="Q101" s="126"/>
-      <c r="R101" s="126"/>
-      <c r="S101" s="126"/>
-      <c r="T101" s="126"/>
-      <c r="U101" s="126"/>
-      <c r="V101" s="126"/>
-      <c r="W101" s="126"/>
-      <c r="X101" s="126"/>
-      <c r="Y101" s="126"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
+      <c r="Q101" s="167"/>
+      <c r="R101" s="167"/>
+      <c r="S101" s="167"/>
+      <c r="T101" s="167"/>
+      <c r="U101" s="167"/>
+      <c r="V101" s="167"/>
+      <c r="W101" s="167"/>
+      <c r="X101" s="167"/>
+      <c r="Y101" s="167"/>
       <c r="Z101" s="99">
         <v>1</v>
       </c>
@@ -8977,29 +8977,29 @@
       </c>
       <c r="K102" s="52">
         <f t="shared" ref="K102:K103" si="8">L101+1</f>
-        <v>2501</v>
+        <v>56.6</v>
       </c>
       <c r="L102" s="54">
         <f>H3*0.15</f>
-        <v>3750</v>
+        <v>83.399999999999991</v>
       </c>
       <c r="M102" s="53">
         <v>10</v>
       </c>
-      <c r="N102" s="126" t="s">
+      <c r="N102" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="O102" s="126"/>
-      <c r="P102" s="126"/>
-      <c r="Q102" s="126"/>
-      <c r="R102" s="126"/>
-      <c r="S102" s="126"/>
-      <c r="T102" s="126"/>
-      <c r="U102" s="126"/>
-      <c r="V102" s="126"/>
-      <c r="W102" s="126"/>
-      <c r="X102" s="126"/>
-      <c r="Y102" s="126"/>
+      <c r="O102" s="167"/>
+      <c r="P102" s="167"/>
+      <c r="Q102" s="167"/>
+      <c r="R102" s="167"/>
+      <c r="S102" s="167"/>
+      <c r="T102" s="167"/>
+      <c r="U102" s="167"/>
+      <c r="V102" s="167"/>
+      <c r="W102" s="167"/>
+      <c r="X102" s="167"/>
+      <c r="Y102" s="167"/>
       <c r="Z102" s="99">
         <v>2</v>
       </c>
@@ -9016,29 +9016,29 @@
       </c>
       <c r="K103" s="52">
         <f t="shared" si="8"/>
-        <v>3751</v>
+        <v>84.399999999999991</v>
       </c>
       <c r="L103" s="54">
         <f>H3*0.3</f>
-        <v>7500</v>
+        <v>166.79999999999998</v>
       </c>
       <c r="M103" s="53">
         <v>15</v>
       </c>
-      <c r="N103" s="126" t="s">
+      <c r="N103" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="O103" s="126"/>
-      <c r="P103" s="126"/>
-      <c r="Q103" s="126"/>
-      <c r="R103" s="126"/>
-      <c r="S103" s="126"/>
-      <c r="T103" s="126"/>
-      <c r="U103" s="126"/>
-      <c r="V103" s="126"/>
-      <c r="W103" s="126"/>
-      <c r="X103" s="126"/>
-      <c r="Y103" s="126"/>
+      <c r="O103" s="167"/>
+      <c r="P103" s="167"/>
+      <c r="Q103" s="167"/>
+      <c r="R103" s="167"/>
+      <c r="S103" s="167"/>
+      <c r="T103" s="167"/>
+      <c r="U103" s="167"/>
+      <c r="V103" s="167"/>
+      <c r="W103" s="167"/>
+      <c r="X103" s="167"/>
+      <c r="Y103" s="167"/>
       <c r="Z103" s="99">
         <v>3</v>
       </c>
@@ -9052,7 +9052,7 @@
     <row r="104" spans="10:37" x14ac:dyDescent="0.25">
       <c r="Z104" s="100">
         <f>VLOOKUP(E20,M100:Z103,14,0)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ104" s="93">
         <v>30</v>
@@ -9066,6 +9066,281 @@
     <sortCondition ref="B31:B36"/>
   </sortState>
   <mergeCells count="299">
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S9:U10"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U13"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:P19"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F20:P21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="N82:Y82"/>
+    <mergeCell ref="N83:Y83"/>
+    <mergeCell ref="N84:Y84"/>
+    <mergeCell ref="N85:Y85"/>
+    <mergeCell ref="N79:Y79"/>
+    <mergeCell ref="N80:Y80"/>
+    <mergeCell ref="N81:Y81"/>
+    <mergeCell ref="N78:Y78"/>
+    <mergeCell ref="N77:Y77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="G23:P28"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="N87:Y87"/>
+    <mergeCell ref="N88:Y88"/>
+    <mergeCell ref="N89:Y89"/>
+    <mergeCell ref="N90:Y90"/>
+    <mergeCell ref="N91:Y91"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="N99:Y99"/>
+    <mergeCell ref="N100:Y100"/>
+    <mergeCell ref="N101:Y101"/>
+    <mergeCell ref="N102:Y102"/>
+    <mergeCell ref="N103:Y103"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="N93:Y93"/>
+    <mergeCell ref="N94:Y94"/>
+    <mergeCell ref="N95:Y95"/>
+    <mergeCell ref="N96:Y96"/>
+    <mergeCell ref="N97:Y97"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F14:P15"/>
+    <mergeCell ref="F16:P17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:P13"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E39:F41"/>
+    <mergeCell ref="H39:I41"/>
+    <mergeCell ref="K39:L41"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="AF68:AG68"/>
     <mergeCell ref="AF69:AG69"/>
@@ -9090,281 +9365,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E39:F41"/>
-    <mergeCell ref="H39:I41"/>
-    <mergeCell ref="K39:L41"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F14:P15"/>
-    <mergeCell ref="F16:P17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:P13"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="N99:Y99"/>
-    <mergeCell ref="N100:Y100"/>
-    <mergeCell ref="N101:Y101"/>
-    <mergeCell ref="N102:Y102"/>
-    <mergeCell ref="N103:Y103"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="N93:Y93"/>
-    <mergeCell ref="N94:Y94"/>
-    <mergeCell ref="N95:Y95"/>
-    <mergeCell ref="N96:Y96"/>
-    <mergeCell ref="N97:Y97"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="N87:Y87"/>
-    <mergeCell ref="N88:Y88"/>
-    <mergeCell ref="N89:Y89"/>
-    <mergeCell ref="N90:Y90"/>
-    <mergeCell ref="N91:Y91"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="N82:Y82"/>
-    <mergeCell ref="N83:Y83"/>
-    <mergeCell ref="N84:Y84"/>
-    <mergeCell ref="N85:Y85"/>
-    <mergeCell ref="N79:Y79"/>
-    <mergeCell ref="N80:Y80"/>
-    <mergeCell ref="N81:Y81"/>
-    <mergeCell ref="N78:Y78"/>
-    <mergeCell ref="N77:Y77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="G23:P28"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S9:U10"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U13"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:P19"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F20:P21"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I3">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThanOrEqual">
